--- a/Assets/Originals/Excels/Goal/GoalMessage.xlsx
+++ b/Assets/Originals/Excels/Goal/GoalMessage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGameProduction\Mumei(No Name)\Assets\Originals\Excels\Goal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Goal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95EDF5F-4F00-42B2-A0D7-95AD4157112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1FA5FC-7F59-4386-AD59-D2CBE5D4BB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="goalMessage" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>number</t>
     <phoneticPr fontId="1"/>
@@ -41,6 +41,13 @@
   </si>
   <si>
     <t>ドキュメントに関係するアイテムを選択せよ</t>
+  </si>
+  <si>
+    <t>このアイテムでは脱出できないようだ</t>
+    <rPh sb="8" eb="10">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -368,10 +375,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -413,6 +420,9 @@
     <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/Assets/Originals/Excels/Goal/GoalMessage.xlsx
+++ b/Assets/Originals/Excels/Goal/GoalMessage.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Goal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1FA5FC-7F59-4386-AD59-D2CBE5D4BB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9638650-85D6-45CA-AE1C-A574BD17324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="goalMessage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>number</t>
     <phoneticPr fontId="1"/>
@@ -43,9 +54,17 @@
     <t>ドキュメントに関係するアイテムを選択せよ</t>
   </si>
   <si>
-    <t>このアイテムでは脱出できないようだ</t>
-    <rPh sb="8" eb="10">
-      <t>ダッシュツ</t>
+    <t>このアイテムではないようだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これでチュートリアルを終了します
+「戻る」を押してスペースキーを押してください</t>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -90,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -375,10 +397,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -425,9 +450,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="37.5">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/Assets/Originals/Excels/Goal/GoalMessage.xlsx
+++ b/Assets/Originals/Excels/Goal/GoalMessage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Goal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9638650-85D6-45CA-AE1C-A574BD17324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2FDC35-4865-412A-BA32-D28D1FC7FC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>number</t>
     <phoneticPr fontId="1"/>
@@ -55,17 +55,6 @@
   </si>
   <si>
     <t>このアイテムではないようだ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これでチュートリアルを終了します
-「戻る」を押してスペースキーを押してください</t>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>オ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -397,7 +386,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -450,13 +439,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="37.5">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
